--- a/canteen_restaurant_list.xlsx
+++ b/canteen_restaurant_list.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -34,7 +35,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt formatCode="General" numFmtId="164"/>
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="165"/>
+    <numFmt formatCode="YYYY\-MM\-DD\ H:MM:SS" numFmtId="165"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -84,14 +85,17 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -395,51 +399,51 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
   <cols>
-    <col customWidth="1" max="1025" min="1" width="11.52"/>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="12.8" r="1" s="1" spans="1:5">
-      <c r="A1" s="0" t="n">
+    <row customHeight="1" ht="12.8" r="1" s="3" spans="1:5">
+      <c r="A1" s="1" t="n">
         <v>42</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="2" s="1" spans="1:5">
+    <row customHeight="1" ht="12.8" r="2" s="3" spans="1:5">
       <c r="A2" s="2" t="n">
-        <v>43001.88284203476</v>
-      </c>
-      <c r="B2" s="0" t="s">
+        <v>43002.6080540257</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="12.8" r="3" s="1" spans="1:5">
-      <c r="A3" s="0" t="n">
+    <row customHeight="1" ht="12.8" r="3" s="3" spans="1:5">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>5</v>
       </c>
     </row>
@@ -456,4 +460,41 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.8" outlineLevelCol="0" outlineLevelRow="0" zeroHeight="0"/>
+  <cols>
+    <col customWidth="1" max="1025" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <headerFooter differentFirst="0" differentOddEven="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>